--- a/biology/Botanique/Square_Gaston-Baty/Square_Gaston-Baty.xlsx
+++ b/biology/Botanique/Square_Gaston-Baty/Square_Gaston-Baty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Gaston-Baty est un square du 14e arrondissement de Paris dans le quartier du Montparnasse.
@@ -512,11 +524,13 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De forme triangulaire, le square Gaston-Baty est délimité par les rues Poinsot (à l'ouest), Jolivet et du Maine[1].
-Il est accessible à des horaires réglementés[1].
-Il est desservi par la ligne 6 à la station Edgar Quinet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De forme triangulaire, le square Gaston-Baty est délimité par les rues Poinsot (à l'ouest), Jolivet et du Maine.
+Il est accessible à des horaires réglementés.
+Il est desservi par la ligne 6 à la station Edgar Quinet.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom de Gaston Baty (1885-1952), qui dirigea le théâtre Montparnasse tout proche, de 1930 à 1943[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de Gaston Baty (1885-1952), qui dirigea le théâtre Montparnasse tout proche, de 1930 à 1943,.
 </t>
         </is>
       </c>
@@ -576,12 +592,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est créé par décret du 2 décembre 1881[4].
-Il fait l’objet d’une rénovation complète en 2013[1].
-Couvrant une surface de 1035 m², il est équipé d'une aire de jeux pour les enfants[1].
-Planté de tilleuls et de houx taillé, il possède le label Écojardin[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est créé par décret du 2 décembre 1881.
+Il fait l’objet d’une rénovation complète en 2013.
+Couvrant une surface de 1035 m², il est équipé d'une aire de jeux pour les enfants.
+Planté de tilleuls et de houx taillé, il possède le label Écojardin.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Statue en pied, en bronze, du peintre Chaïm Soutine, par Arbit Blatas, datée de 1963 et signée sur le socle. Soutine est inhumé dans le cimetière du Montparnasse voisin[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Statue en pied, en bronze, du peintre Chaïm Soutine, par Arbit Blatas, datée de 1963 et signée sur le socle. Soutine est inhumé dans le cimetière du Montparnasse voisin.</t>
         </is>
       </c>
     </row>
